--- a/5. COMPENSADORES/INFORME PREVIO/calculo_rc.xlsx
+++ b/5. COMPENSADORES/INFORME PREVIO/calculo_rc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSAAC\SEMESTRE VIII\lab-control-i\5. COMPENSADORES\INFORME PREVIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\lab-control-i\5. COMPENSADORES\INFORME PREVIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71F5DEB-FBF6-4767-8269-621446F36EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9AF147-7611-40E9-B7B1-B0F7FE8E6985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="4440" windowWidth="19965" windowHeight="10905" activeTab="1" xr2:uid="{FE5A758F-3994-4092-854E-C1DBB8CE080E}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{FE5A758F-3994-4092-854E-C1DBB8CE080E}"/>
   </bookViews>
   <sheets>
     <sheet name="Implementación" sheetId="1" r:id="rId1"/>
@@ -498,14 +498,14 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -517,7 +517,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,7 +545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>$B$2^2*4*B4/(9)</f>
         <v>1.3675213675213676E-6</v>
@@ -591,7 +591,7 @@
         <v>7142.8571428571431</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>$B$2^2*4*B5/(9)</f>
         <v>6.427350427350428E-6</v>
@@ -617,7 +617,7 @@
         <v>1519.7568389057751</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>$B$2^2*4*B6/(9)</f>
         <v>1.3675213675213674E-5</v>
@@ -643,7 +643,7 @@
         <v>714.28571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" ref="A7:A16" si="3">$B$2^2*4*B7/(9)</f>
         <v>6.4273504273504274E-5</v>
@@ -669,7 +669,7 @@
         <v>151.9756838905775</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -695,7 +695,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>3.0085470085470087E-6</v>
@@ -721,7 +721,7 @@
         <v>3246.7532467532469</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -747,7 +747,7 @@
         <v>15197.568389057751</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -761,7 +761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -775,7 +775,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -789,7 +789,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -806,7 +806,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -824,7 +824,7 @@
         <v>53.140000000000015</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -838,10 +838,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>325</v>
       </c>
@@ -871,7 +871,7 @@
         <v>20.994046775217015</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <f>D2/(2*B21)</f>
         <v>0.55470019622522915</v>
@@ -889,7 +889,7 @@
         <v>1.000283567282036</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F26">
         <f>(2*G23)/G21</f>
         <v>9.5292115711854808E-2</v>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -921,7 +921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0.19058423142370962</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>325</v>
       </c>
@@ -946,18 +946,18 @@
         <v>18.027756377319946</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>D2/(2*B29)</f>
         <v>0.55470019622522915</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>PI()/(B33)</f>
         <v>0.20943951023931953</v>
@@ -975,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>4/(B31*B29)</f>
         <v>0.4</v>
@@ -993,7 +993,7 @@
         <v>9.9846035320541246E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>B29*B31</f>
         <v>10</v>
@@ -1014,7 +1014,7 @@
         <v>6.1805000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>1+1*B37%</f>
         <v>1.12361</v>
@@ -1032,7 +1032,7 @@
         <v>1.0618050000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1040,29 +1040,29 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
@@ -1082,16 +1082,16 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>$B$1^2*4*B3/(9)</f>
         <v>6.8376068376068386E-8</v>
@@ -1165,7 +1165,7 @@
         <v>9677.419354838712</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>$B$1^2*4*B4/(9)</f>
         <v>1.5042735042735044E-7</v>
@@ -1191,7 +1191,7 @@
         <v>4398.8269794721409</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>$B$1^2*4*B5/(9)</f>
         <v>3.2136752136752138E-7</v>
@@ -1217,7 +1217,7 @@
         <v>2059.0253946465341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ref="A6:A15" si="3">$B$1^2*4*B6/(9)</f>
         <v>6.8376068376068378E-7</v>
@@ -1243,7 +1243,7 @@
         <v>967.74193548387098</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>3.213675213675214E-6</v>
@@ -1269,7 +1269,7 @@
         <v>205.90253946465342</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1295,7 +1295,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1321,7 +1321,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1347,7 +1347,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1369,7 +1369,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1391,7 +1391,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1413,7 +1413,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1435,7 +1435,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1457,7 +1457,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>65</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1.0564771737160452</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>B20*SQRT(1-C20^2)</f>
         <v>7.9999999999999991</v>
@@ -1558,7 +1558,7 @@
         <v>15.499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>4/(C20*B20)</f>
         <v>4</v>

--- a/5. COMPENSADORES/INFORME PREVIO/calculo_rc.xlsx
+++ b/5. COMPENSADORES/INFORME PREVIO/calculo_rc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bremdows\UNSAAC\SEMESTRE VIII\lab-control-i\5. COMPENSADORES\INFORME PREVIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNSAAC\SEMESTRE VIII\lab-control-i\5. COMPENSADORES\INFORME PREVIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9AF147-7611-40E9-B7B1-B0F7FE8E6985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DC0B2F-6412-4842-925E-015DE11B07C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{FE5A758F-3994-4092-854E-C1DBB8CE080E}"/>
+    <workbookView xWindow="7185" yWindow="0" windowWidth="21615" windowHeight="16200" xr2:uid="{FE5A758F-3994-4092-854E-C1DBB8CE080E}"/>
   </bookViews>
   <sheets>
     <sheet name="Implementación" sheetId="1" r:id="rId1"/>
@@ -494,18 +494,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815D4429-F3D6-4F7B-A018-34B483DED09C}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -517,7 +517,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,7 +545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>$B$2^2*4*B4/(9)</f>
         <v>1.3675213675213676E-6</v>
@@ -591,7 +591,7 @@
         <v>7142.8571428571431</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>$B$2^2*4*B5/(9)</f>
         <v>6.427350427350428E-6</v>
@@ -617,7 +617,7 @@
         <v>1519.7568389057751</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>$B$2^2*4*B6/(9)</f>
         <v>1.3675213675213674E-5</v>
@@ -643,7 +643,7 @@
         <v>714.28571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:A16" si="3">$B$2^2*4*B7/(9)</f>
         <v>6.4273504273504274E-5</v>
@@ -669,7 +669,7 @@
         <v>151.9756838905775</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -695,7 +695,7 @@
         <v>71.428571428571431</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>3.0085470085470087E-6</v>
@@ -721,7 +721,7 @@
         <v>3246.7532467532469</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -747,7 +747,7 @@
         <v>15197.568389057751</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -761,7 +761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -775,7 +775,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -789,7 +789,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -806,7 +806,7 @@
         <v>53.13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -824,7 +824,7 @@
         <v>53.140000000000015</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
         <v>1.3675213675213676E-4</v>
@@ -838,10 +838,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>325</v>
       </c>
@@ -871,7 +871,7 @@
         <v>20.994046775217015</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>D2/(2*B21)</f>
         <v>0.55470019622522915</v>
@@ -889,7 +889,7 @@
         <v>1.000283567282036</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F26">
         <f>(2*G23)/G21</f>
         <v>9.5292115711854808E-2</v>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -921,7 +921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0.19058423142370962</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>325</v>
       </c>
@@ -946,18 +946,18 @@
         <v>18.027756377319946</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>D2/(2*B29)</f>
         <v>0.55470019622522915</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>PI()/(B33)</f>
         <v>0.20943951023931953</v>
@@ -975,7 +975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -983,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>4/(B31*B29)</f>
         <v>0.4</v>
@@ -993,7 +993,7 @@
         <v>9.9846035320541246E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>B29*B31</f>
         <v>10</v>
@@ -1014,7 +1014,7 @@
         <v>6.1805000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>1+1*B37%</f>
         <v>1.12361</v>
@@ -1032,7 +1032,7 @@
         <v>1.0618050000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1040,29 +1040,29 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
@@ -1081,17 +1081,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03516E6C-2C46-4AD1-BC3F-907E935C7AD3}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>$B$1^2*4*B3/(9)</f>
         <v>6.8376068376068386E-8</v>
@@ -1165,7 +1165,7 @@
         <v>9677.419354838712</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>$B$1^2*4*B4/(9)</f>
         <v>1.5042735042735044E-7</v>
@@ -1191,7 +1191,7 @@
         <v>4398.8269794721409</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>$B$1^2*4*B5/(9)</f>
         <v>3.2136752136752138E-7</v>
@@ -1217,7 +1217,7 @@
         <v>2059.0253946465341</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A15" si="3">$B$1^2*4*B6/(9)</f>
         <v>6.8376068376068378E-7</v>
@@ -1243,7 +1243,7 @@
         <v>967.74193548387098</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="3"/>
         <v>3.213675213675214E-6</v>
@@ -1269,7 +1269,7 @@
         <v>205.90253946465342</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1295,7 +1295,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1321,7 +1321,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1347,7 +1347,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1369,7 +1369,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1391,7 +1391,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1413,7 +1413,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1435,7 +1435,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="3"/>
         <v>6.8376068376068387E-6</v>
@@ -1457,7 +1457,7 @@
         <v>96.774193548387103</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>65</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>1.0564771737160452</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>B20*SQRT(1-C20^2)</f>
         <v>7.9999999999999991</v>
@@ -1558,7 +1558,7 @@
         <v>15.499999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>4/(C20*B20)</f>
         <v>4</v>
